--- a/do-testu.xlsx
+++ b/do-testu.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -36,22 +35,86 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -249,15 +312,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>41067</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>40646</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>42281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>42152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>40557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>42291</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>41253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>43079</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>40435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>41004</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>41798</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>40642</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>41262</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>41120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>41894</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>42545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>41819</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>40398</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>41142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>42841</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>40487</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>40788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>40527</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41417</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>41628</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>40973</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>41063</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>42368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/do-testu.xlsx
+++ b/do-testu.xlsx
@@ -327,252 +327,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>41067</v>
+        <v>44107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>42096</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>40646</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42281</v>
+        <v>44081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42152</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40557</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>42291</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>41253</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43079</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43769</v>
+        <v>43833</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40435</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43062</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41004</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43340</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>42930</v>
+        <v>43926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>41798</v>
+        <v>44184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43286</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>40642</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43135</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41262</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>41120</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41894</v>
+        <v>44130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43029</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>42545</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>41819</v>
+        <v>43975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43066</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>40398</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42250</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43120</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>41142</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43322</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>42841</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43505</v>
+        <v>43867</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>40487</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42621</v>
+        <v>43847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43631</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42613</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43210</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40788</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>40527</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43541</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41417</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42730</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42990</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>41628</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40973</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40513</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>41063</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43511</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>42368</v>
+        <v>43985</v>
       </c>
     </row>
   </sheetData>
